--- a/production_recipe_management_tool_v1.1/data/Outsourced_Product_Lits.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Outsourced_Product_Lits.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Desktop\production_recipe_management_tool_v1.1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F9BB7D-190A-49F5-9796-951F39E0E663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C34A5A-724A-4516-8E99-0B52CDE988ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>Fresh 2 Go - Frozen Garlic &amp; Coriander Naan - Pack of 4</t>
   </si>
   <si>
-    <t>Amul - French Fries 9 mm - 2.5 Kg</t>
-  </si>
-  <si>
     <t>Pieces</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>98305 03868</t>
+  </si>
+  <si>
+    <t>Amul - French Fry 9 mm - 2.5 Kg</t>
   </si>
 </sst>
 </file>
@@ -525,10 +525,19 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="51.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -558,7 +567,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>3.5</v>
@@ -570,10 +579,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -581,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>4.5</v>
@@ -593,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -604,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -616,10 +625,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -627,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>85</v>
@@ -639,10 +648,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -650,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>7.6</v>
@@ -662,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -673,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -685,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>6291008618</v>
@@ -696,7 +705,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -708,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>6291008618</v>
@@ -719,7 +728,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>80</v>
@@ -731,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>6291008618</v>
@@ -742,7 +751,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>25.2</v>
@@ -754,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>6291008618</v>
@@ -765,7 +774,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -777,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>6291008618</v>
@@ -788,7 +797,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>15.5</v>
@@ -800,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -811,7 +820,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -823,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -834,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>15.5</v>
@@ -846,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -857,7 +866,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -869,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -880,7 +889,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -892,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -903,7 +912,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>31</v>
@@ -915,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -926,7 +935,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>14.8</v>
@@ -938,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -949,7 +958,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>43.2</v>
@@ -961,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -972,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>14.8</v>
@@ -984,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -995,7 +1004,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>43.2</v>
@@ -1007,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1018,7 +1027,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>10.25</v>
@@ -1030,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1041,7 +1050,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>10.25</v>
@@ -1053,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1064,7 +1073,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -1076,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1087,7 +1096,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>5.5</v>
@@ -1099,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1107,7 +1116,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -1119,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1127,7 +1136,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>12</v>
@@ -1139,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1147,7 +1156,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -1159,15 +1168,15 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>0.115</v>
@@ -1179,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/production_recipe_management_tool_v1.1/data/Outsourced_Product_Lits.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Outsourced_Product_Lits.xlsx
@@ -5,17 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db716023529416d8/Documents/GitHub/production_recipe_management_tool/production_recipe_management_tool_v1.1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C34A5A-724A-4516-8E99-0B52CDE988ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{39C34A5A-724A-4516-8E99-0B52CDE988ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{266C0AA6-44A8-43A9-92ED-D19641A5AD35}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,87 +54,6 @@
     <t>Vendor Phone Number</t>
   </si>
   <si>
-    <t>Chicken Darjeeling Momo</t>
-  </si>
-  <si>
-    <t>Chicken Darjeeling Momo Premium</t>
-  </si>
-  <si>
-    <t>Veg Momo</t>
-  </si>
-  <si>
-    <t>Cheesy Fish Fry</t>
-  </si>
-  <si>
-    <t>Chicken Nuggets Fry Premium (50 PC / 1 Kg)</t>
-  </si>
-  <si>
-    <t>Chicken Dim Sum</t>
-  </si>
-  <si>
-    <t>MIX VEG Dim sum</t>
-  </si>
-  <si>
-    <t>Diamond Fish Fry (Bhetki)</t>
-  </si>
-  <si>
-    <t>Fish Finger Fry (Bhetki)</t>
-  </si>
-  <si>
-    <t>Chicken Spring Roll Fry</t>
-  </si>
-  <si>
-    <t>LACHA PARATHA (ROLL SIZE) - 1kg - 10 Pieces</t>
-  </si>
-  <si>
-    <t>LACHA PARATHA (REGULAR SIZE) - 1kg - 12 Pieces</t>
-  </si>
-  <si>
-    <t>Malabar Flakey Paratha - 1kg - 10 Pieces</t>
-  </si>
-  <si>
-    <t>NAAN - 1 Pack - 10 Pieces</t>
-  </si>
-  <si>
-    <t>GARLIC NAAN - 1 Pack - 10 Pieces</t>
-  </si>
-  <si>
-    <t>MASALA KULCHA - 1 PC Pack - 5 Pieces</t>
-  </si>
-  <si>
-    <t>Alu paratha - 1 PC Pack - 5 Pieces</t>
-  </si>
-  <si>
-    <t>Paneer Bhurjee Paratha - 1 PC Pack - 5 Pieces</t>
-  </si>
-  <si>
-    <t>Mix veg Paratha - 1 PC Pack - 5 Pieces</t>
-  </si>
-  <si>
-    <t>Chicken Keema Paratha - 1 PC Pack - 5 Pieces</t>
-  </si>
-  <si>
-    <t>CORN CHEESE MOMO - 1kg - 40 Pieces</t>
-  </si>
-  <si>
-    <t>Tandori Veg Momo - 1kg - 40 Pieces</t>
-  </si>
-  <si>
-    <t>MUSHROOM CHEESE MOMO - 1kg - 35 Pieces</t>
-  </si>
-  <si>
-    <t>Fresh 2 Go - Ambient 6" Plain Tortilla - 10 Pieces Pack</t>
-  </si>
-  <si>
-    <t>Fresh 2 Go - Ambient 8.5" Plain Tortilla - 10 Pieces Pack</t>
-  </si>
-  <si>
-    <t>Fresh 2 Go - Frozen 10.5" Plain Tortilla Wrap - 12 Pieces Pack</t>
-  </si>
-  <si>
-    <t>Fresh 2 Go - Frozen Garlic &amp; Coriander Naan - Pack of 4</t>
-  </si>
-  <si>
     <t>Pieces</t>
   </si>
   <si>
@@ -154,7 +84,88 @@
     <t>98305 03868</t>
   </si>
   <si>
-    <t>Amul - French Fry 9 mm - 2.5 Kg</t>
+    <t>Chicken Darjeeling Momo D-Momo</t>
+  </si>
+  <si>
+    <t>Chicken Darjeeling Momo Premium D-Momo</t>
+  </si>
+  <si>
+    <t>Veg Momo D-Momo</t>
+  </si>
+  <si>
+    <t>Cheesy Fish Fry Food Hub</t>
+  </si>
+  <si>
+    <t>Chicken Nuggets Fry Premium (50 PC / 1 Kg) Food Hub</t>
+  </si>
+  <si>
+    <t>Chicken Dim Sum Bamboo</t>
+  </si>
+  <si>
+    <t>MIX VEG Dim sum Bamboo</t>
+  </si>
+  <si>
+    <t>Diamond Fish Fry (Bhetki) Bamboo</t>
+  </si>
+  <si>
+    <t>Fish Finger Fry (Bhetki) Bamboo</t>
+  </si>
+  <si>
+    <t>Chicken Spring Roll Fry Bamboo</t>
+  </si>
+  <si>
+    <t>LACHA PARATHA (ROLL SIZE) - 1kg - 10 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>LACHA PARATHA (REGULAR SIZE) - 1kg - 12 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Malabar Flakey Paratha - 1kg - 10 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>NAAN - 1 Pack - 10 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>GARLIC NAAN - 1 Pack - 10 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>MASALA KULCHA - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Alu paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Paneer Bhurjee Paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Mix veg Paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Chicken Keema Paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>CORN CHEESE MOMO - 1kg - 40 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Tandori Veg Momo - 1kg - 40 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>MUSHROOM CHEESE MOMO - 1kg - 35 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Fresh 2 Go - Ambient 6" Plain Tortilla - 10 Pieces Pack Hyperpure</t>
+  </si>
+  <si>
+    <t>Fresh 2 Go - Ambient 8.5" Plain Tortilla - 10 Pieces Pack Hyperpure</t>
+  </si>
+  <si>
+    <t>Fresh 2 Go - Frozen 10.5" Plain Tortilla Wrap - 12 Pieces Pack Hyperpure</t>
+  </si>
+  <si>
+    <t>Fresh 2 Go - Frozen Garlic &amp; Coriander Naan - Pack of 4 Hyperpure</t>
+  </si>
+  <si>
+    <t>Amul - French Fry 9 mm - 2.5 Kg Hyperpure</t>
   </si>
 </sst>
 </file>
@@ -524,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,10 +575,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>3.5</v>
@@ -579,18 +590,18 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>4.5</v>
@@ -602,18 +613,18 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -625,18 +636,18 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>85</v>
@@ -648,18 +659,18 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>7.6</v>
@@ -671,18 +682,18 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -694,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>6291008618</v>
@@ -702,10 +713,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -717,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>6291008618</v>
@@ -725,10 +736,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>80</v>
@@ -740,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>6291008618</v>
@@ -748,10 +759,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>25.2</v>
@@ -763,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>6291008618</v>
@@ -771,10 +782,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -786,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>6291008618</v>
@@ -794,10 +805,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>15.5</v>
@@ -809,18 +820,18 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -832,18 +843,18 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>15.5</v>
@@ -855,18 +866,18 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -878,18 +889,18 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -901,18 +912,18 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>31</v>
@@ -924,18 +935,18 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>14.8</v>
@@ -947,18 +958,18 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>43.2</v>
@@ -970,18 +981,18 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>14.8</v>
@@ -993,18 +1004,18 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>43.2</v>
@@ -1016,18 +1027,18 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>10.25</v>
@@ -1039,18 +1050,18 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>10.25</v>
@@ -1062,18 +1073,18 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -1085,18 +1096,18 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>5.5</v>
@@ -1108,15 +1119,15 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -1128,15 +1139,15 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>12</v>
@@ -1148,15 +1159,15 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -1168,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1176,7 +1187,7 @@
         <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>0.115</v>
@@ -1188,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/production_recipe_management_tool_v1.1/data/Outsourced_Product_Lits.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Outsourced_Product_Lits.xlsx
@@ -1,32 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db716023529416d8/Documents/GitHub/production_recipe_management_tool/production_recipe_management_tool_v1.1/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{39C34A5A-724A-4516-8E99-0B52CDE988ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{266C0AA6-44A8-43A9-92ED-D19641A5AD35}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -54,6 +37,90 @@
     <t>Vendor Phone Number</t>
   </si>
   <si>
+    <t>Chicken Darjeeling Momo D-Momo</t>
+  </si>
+  <si>
+    <t>Chicken Darjeeling Momo Premium D-Momo</t>
+  </si>
+  <si>
+    <t>Veg Momo D-Momo</t>
+  </si>
+  <si>
+    <t>Cheesy Fish Fry Food Hub</t>
+  </si>
+  <si>
+    <t>Chicken Nuggets Fry Premium (50 PC / 1 Kg) Food Hub</t>
+  </si>
+  <si>
+    <t>Chicken Dim Sum Bamboo</t>
+  </si>
+  <si>
+    <t>MIX VEG Dim sum Bamboo</t>
+  </si>
+  <si>
+    <t>Diamond Fish Fry (Bhetki) Bamboo</t>
+  </si>
+  <si>
+    <t>Fish Finger Fry (Bhetki) Bamboo</t>
+  </si>
+  <si>
+    <t>Chicken Spring Roll Fry Bamboo</t>
+  </si>
+  <si>
+    <t>LACHA PARATHA (ROLL SIZE) - 1kg - 10 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>LACHA PARATHA (REGULAR SIZE) - 1kg - 12 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Malabar Flakey Paratha - 1kg - 10 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>NAAN - 1 Pack - 10 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>GARLIC NAAN - 1 Pack - 10 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>MASALA KULCHA - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Alu paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Paneer Bhurjee Paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Mix veg Paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Chicken Keema Paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>CORN CHEESE MOMO - 1kg - 40 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Tandori Veg Momo - 1kg - 40 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>MUSHROOM CHEESE MOMO - 1kg - 35 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Fresh 2 Go - Ambient 6" Plain Tortilla - 10 Pieces Pack Hyperpure</t>
+  </si>
+  <si>
+    <t>Fresh 2 Go - Ambient 8.5" Plain Tortilla - 10 Pieces Pack Hyperpure</t>
+  </si>
+  <si>
+    <t>Fresh 2 Go - Frozen 10.5" Plain Tortilla Wrap - 12 Pieces Pack Hyperpure</t>
+  </si>
+  <si>
+    <t>Fresh 2 Go - Frozen Garlic &amp; Coriander Naan - Pack of 4 Hyperpure</t>
+  </si>
+  <si>
+    <t>Amul - French Fry 9 mm - 2.5 Kg Hyperpure</t>
+  </si>
+  <si>
     <t>Pieces</t>
   </si>
   <si>
@@ -82,97 +149,13 @@
   </si>
   <si>
     <t>98305 03868</t>
-  </si>
-  <si>
-    <t>Chicken Darjeeling Momo D-Momo</t>
-  </si>
-  <si>
-    <t>Chicken Darjeeling Momo Premium D-Momo</t>
-  </si>
-  <si>
-    <t>Veg Momo D-Momo</t>
-  </si>
-  <si>
-    <t>Cheesy Fish Fry Food Hub</t>
-  </si>
-  <si>
-    <t>Chicken Nuggets Fry Premium (50 PC / 1 Kg) Food Hub</t>
-  </si>
-  <si>
-    <t>Chicken Dim Sum Bamboo</t>
-  </si>
-  <si>
-    <t>MIX VEG Dim sum Bamboo</t>
-  </si>
-  <si>
-    <t>Diamond Fish Fry (Bhetki) Bamboo</t>
-  </si>
-  <si>
-    <t>Fish Finger Fry (Bhetki) Bamboo</t>
-  </si>
-  <si>
-    <t>Chicken Spring Roll Fry Bamboo</t>
-  </si>
-  <si>
-    <t>LACHA PARATHA (ROLL SIZE) - 1kg - 10 Pieces EXQUISSITO FOODS</t>
-  </si>
-  <si>
-    <t>LACHA PARATHA (REGULAR SIZE) - 1kg - 12 Pieces EXQUISSITO FOODS</t>
-  </si>
-  <si>
-    <t>Malabar Flakey Paratha - 1kg - 10 Pieces EXQUISSITO FOODS</t>
-  </si>
-  <si>
-    <t>NAAN - 1 Pack - 10 Pieces EXQUISSITO FOODS</t>
-  </si>
-  <si>
-    <t>GARLIC NAAN - 1 Pack - 10 Pieces EXQUISSITO FOODS</t>
-  </si>
-  <si>
-    <t>MASALA KULCHA - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
-  </si>
-  <si>
-    <t>Alu paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
-  </si>
-  <si>
-    <t>Paneer Bhurjee Paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
-  </si>
-  <si>
-    <t>Mix veg Paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
-  </si>
-  <si>
-    <t>Chicken Keema Paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
-  </si>
-  <si>
-    <t>CORN CHEESE MOMO - 1kg - 40 Pieces EXQUISSITO FOODS</t>
-  </si>
-  <si>
-    <t>Tandori Veg Momo - 1kg - 40 Pieces EXQUISSITO FOODS</t>
-  </si>
-  <si>
-    <t>MUSHROOM CHEESE MOMO - 1kg - 35 Pieces EXQUISSITO FOODS</t>
-  </si>
-  <si>
-    <t>Fresh 2 Go - Ambient 6" Plain Tortilla - 10 Pieces Pack Hyperpure</t>
-  </si>
-  <si>
-    <t>Fresh 2 Go - Ambient 8.5" Plain Tortilla - 10 Pieces Pack Hyperpure</t>
-  </si>
-  <si>
-    <t>Fresh 2 Go - Frozen 10.5" Plain Tortilla Wrap - 12 Pieces Pack Hyperpure</t>
-  </si>
-  <si>
-    <t>Fresh 2 Go - Frozen Garlic &amp; Coriander Naan - Pack of 4 Hyperpure</t>
-  </si>
-  <si>
-    <t>Amul - French Fry 9 mm - 2.5 Kg Hyperpure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,21 +218,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -287,7 +262,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -321,7 +296,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -356,10 +330,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -532,25 +505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="51.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,12 +535,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>3.5</v>
@@ -590,18 +552,18 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>4.5</v>
@@ -613,18 +575,18 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -636,18 +598,18 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>85</v>
@@ -659,18 +621,18 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>7.6</v>
@@ -682,18 +644,18 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -705,18 +667,18 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>6291008618</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -728,18 +690,18 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>6291008618</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>80</v>
@@ -751,18 +713,18 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>6291008618</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>25.2</v>
@@ -774,18 +736,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>6291008618</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -794,21 +756,21 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>6291008618</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>15.5</v>
@@ -820,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -843,18 +805,18 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>15.5</v>
@@ -866,18 +828,18 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -889,18 +851,18 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -912,18 +874,18 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>31</v>
@@ -935,18 +897,18 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>14.8</v>
@@ -958,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>43.2</v>
@@ -981,18 +943,18 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>14.8</v>
@@ -1004,18 +966,18 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>43.2</v>
@@ -1027,18 +989,18 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>10.25</v>
@@ -1050,18 +1012,18 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>10.25</v>
@@ -1073,18 +1035,18 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -1096,18 +1058,18 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>5.5</v>
@@ -1119,15 +1081,15 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -1139,15 +1101,15 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>12</v>
@@ -1159,15 +1121,15 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -1179,27 +1141,27 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>0.115</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/production_recipe_management_tool_v1.1/data/Outsourced_Product_Lits.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Outsourced_Product_Lits.xlsx
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>75</v>
+        <v>490</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
